--- a/Configuration/RiskModel_ConfigurationFile.xlsx
+++ b/Configuration/RiskModel_ConfigurationFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwinterimexecutivesolutions-my.sharepoint.com/personal/dbartoli_sourcingchampions_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoBartoli\PycharmProjects\BusinessModel_app_generator\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="11_F25DC773A252ABDACC1048BA61587F7C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BAB196-E394-46A4-967E-86BB49899435}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D1F22-1C06-4624-9A5E-10FA0B9C0F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
   <si>
     <t>Page</t>
   </si>
@@ -72,228 +72,444 @@
     <t>Supply Chain mapped</t>
   </si>
   <si>
+    <t>Subset of suppliers typically the top spends and often just Parents/Headquarters or Payment addresses</t>
+  </si>
+  <si>
+    <t>Most suppliers directly contributing to the manufacturing operations captured at the production plant address  level</t>
+  </si>
+  <si>
+    <t>Connections between nodes are captured (e.g. Supplier Site to Shipping Port to Receiving Port to Manufacturing Site)</t>
+  </si>
+  <si>
+    <t>All direct suppliers along with Key MRO and indirect suppliers. Most supply paths are identified</t>
+  </si>
+  <si>
+    <t>Information is kept up-to-date systematically and is comprehensive</t>
+  </si>
+  <si>
+    <t>Financials &amp; Tribal knowledge</t>
+  </si>
+  <si>
+    <t>Sanctions, Geographic, Weather, Market</t>
+  </si>
+  <si>
+    <t>Integration of internal metrics such as  performance, quality &amp; OTD</t>
+  </si>
+  <si>
+    <t>Compliance &amp; Sustainability and Cyber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commodity, material, and industry risk </t>
+  </si>
+  <si>
+    <t>Primarily utilize a Credit rating to check supplier</t>
+  </si>
+  <si>
+    <t>Leverage multiple sources of insights from 3rd parties, web searches or google alerts or its like</t>
+  </si>
+  <si>
+    <t>Structured integration of multiple sources including purpose built real-time media monitoring</t>
+  </si>
+  <si>
+    <t>Insights extended to supplier provided insights combined with the incorporation of providers of validated topic specific content</t>
+  </si>
+  <si>
+    <t>Insights are derived through AI applied to multiple sources of insights</t>
+  </si>
+  <si>
+    <t>Limited or ad-hoc risk scoring. No central repository.</t>
+  </si>
+  <si>
+    <t>Individual topics have their own measurement. Information is isolated e.g. exists on a shared drive</t>
+  </si>
+  <si>
+    <t>Customized risk score with harmonized values for different risk topics combined to form a risk profile. Access is available to supply management organization</t>
+  </si>
+  <si>
+    <t>Risk Profile is accessible to all and ready to be integrated  to other systems and processes</t>
+  </si>
+  <si>
+    <t>Risk Profile is applicable across departments and used as the de-facto standard</t>
+  </si>
+  <si>
+    <t>Checked infrequently based upon need and typically at the time of on-boarding</t>
+  </si>
+  <si>
+    <t>Updated on a regular interval, either monthly or quarterly</t>
+  </si>
+  <si>
+    <t>Information is kept up-to-date as changes occur and are made available by external sources. Active monitoring of new and emerging threats, near real-time, is in place</t>
+  </si>
+  <si>
+    <t>Topic specific assessments that collect information from the supplier are scheduled. Updates from internal systems happen at least daily</t>
+  </si>
+  <si>
+    <t>Causality: One input trigger another such as an assessment is sent based upon a revised credit score</t>
+  </si>
+  <si>
+    <t>Information lives in pockets. Manually integrated to enable reporting</t>
+  </si>
+  <si>
+    <t>Standardized reports are created and available to the user community</t>
+  </si>
+  <si>
+    <t>Access to ad-hoc reporting and the ability to create user specifc dashboard that highlight the information most critical to the user</t>
+  </si>
+  <si>
+    <t>Sophisticated reporting is able to utilize historical risk profile content to identify trends</t>
+  </si>
+  <si>
+    <t>Utilizing information gleaned from previous events, a system is able to predict potential outcomes and likelihood based upon current risk factors</t>
+  </si>
+  <si>
+    <t>Tool use is ad-hoc usually initiated by an individual with their available toolbox (e.g. excel)</t>
+  </si>
+  <si>
+    <t>Disconnected, home-grown tools established  eg. MS ToDos, Google News alerts, Spread sheets (Excel)</t>
+  </si>
+  <si>
+    <t>Individual tools are purchased or configured for specific purposes, not tightly integrated</t>
+  </si>
+  <si>
+    <t>Purpose-built tools exist for the entire process with some integration. Capabilities are available on mobile</t>
+  </si>
+  <si>
+    <t>End-2-end integrated tool suite using APIs to pull and push data into and from other systems. Risk KPIs are part of company wide reporting</t>
+  </si>
+  <si>
+    <t>Risk types</t>
+  </si>
+  <si>
+    <t>Sources of insight</t>
+  </si>
+  <si>
+    <t>Source of truth</t>
+  </si>
+  <si>
+    <t>Use of Analytics</t>
+  </si>
+  <si>
+    <t>Digitalization</t>
+  </si>
+  <si>
+    <t>Frequency of information updates</t>
+  </si>
+  <si>
+    <t>Preparedness: Understanding Criticality</t>
+  </si>
+  <si>
+    <t>Mitigation approach</t>
+  </si>
+  <si>
+    <t>Due Diligence for new suppliers</t>
+  </si>
+  <si>
+    <t>Risk Mitigation</t>
+  </si>
+  <si>
+    <t>No standard metrics are in place</t>
+  </si>
+  <si>
+    <t>Criticality is estimated based upon spend and segmentation</t>
+  </si>
+  <si>
+    <t>Qualitative assessment of supplier site criticality by category / material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticality updated on regular intervals &amp; includes Business at Risk derived from product revenue. Threats are tied to Open Orders, contracts, and delivery schedules </t>
+  </si>
+  <si>
+    <t>Criticality is understood at the supplier-part level and tied to purchasing and supply process</t>
+  </si>
+  <si>
+    <t>Some plans exist, but decisions on how to mitigate an event are up to the discretion of category owner/buyer</t>
+  </si>
+  <si>
+    <t>Standard Mitigation actions for most risk types, typically reactive</t>
+  </si>
+  <si>
+    <t>Standard Mitigation actions for all risk types including a proactive playbook</t>
+  </si>
+  <si>
+    <t>Actions are mandated, tracked and results measured</t>
+  </si>
+  <si>
+    <t>Plans are regularly reviewed and evolved based upon lessons learned</t>
+  </si>
+  <si>
+    <t>Individuals conduct due diligence as they deem appropriate.</t>
+  </si>
+  <si>
+    <t>A minimum set of standardized requirements for all new suppliers must be assessed</t>
+  </si>
+  <si>
+    <t>Criteria for on-boarding is established with a broad set of stakeholders. Suppliers are required to complete questionnaires. Topics include Financial Health, Cyber, Compliance and Safety</t>
+  </si>
+  <si>
+    <t>Supplier provided information is validated and must be updated at regular intervals</t>
+  </si>
+  <si>
+    <t>A historical review of suppliers performance and risk posture is performed as part of on-boarding in addition to an assessment process</t>
+  </si>
+  <si>
+    <t>Tool use is ad-hoc usually initiated by an individual with their available infrastructure</t>
+  </si>
+  <si>
+    <t>Disconnected, not specialized tools established eg. MS ToDos, Google News alerts, excel</t>
+  </si>
+  <si>
+    <t>Supplier Collaboration &amp; Network Resilience</t>
+  </si>
+  <si>
+    <t>Not part of the program</t>
+  </si>
+  <si>
+    <t>Discussed ad-hoc with various suppliers</t>
+  </si>
+  <si>
+    <t>Top suppliers are asked to shared their key suppliers typically updated on an annual basis</t>
+  </si>
+  <si>
+    <t>A specific set of priority supplier is defined and those suppliers share relevant suppliers. Updates are typically twice a year</t>
+  </si>
+  <si>
+    <t>Suppliers actively maintain a list of relevant suppliers that are regularly shared</t>
+  </si>
+  <si>
+    <t>Business Continuity Plans (BCP) plans are collected</t>
+  </si>
+  <si>
+    <t>Supplier risk posture is assessed and included in award and segmentation decisions</t>
+  </si>
+  <si>
+    <t>Suppliers are educated on your risk management expectations. Their risk postures are incented with favorable terms</t>
+  </si>
+  <si>
+    <t>You provide programs to educate suppliers on risk management and offer to help them with their programs</t>
+  </si>
+  <si>
+    <t>Supplier not engaged</t>
+  </si>
+  <si>
+    <t>Top suppliers engaged</t>
+  </si>
+  <si>
+    <t>All critical suppliers engaged</t>
+  </si>
+  <si>
+    <t>Critical &amp; Strategic suppliers engaged</t>
+  </si>
+  <si>
+    <t>Criticality is used to establish a threshold and all suppliers that warrant engagement are engaged</t>
+  </si>
+  <si>
+    <t>Disconnected, not specialized tools established  eg. MS ToDos, Google News alerts, excel</t>
+  </si>
+  <si>
+    <t>Organization, Governance &amp; Policies</t>
+  </si>
+  <si>
+    <t>No or limited formal policies</t>
+  </si>
+  <si>
+    <t>Policies are defined at the local plant level or category specific</t>
+  </si>
+  <si>
+    <t>Global policies and procedures in place</t>
+  </si>
+  <si>
+    <t>Procedures are consistently followed across the organization. High risk suppliers and categories are regularly reviewed with leadership</t>
+  </si>
+  <si>
+    <t>Procedures and policies are integrated across organizations</t>
+  </si>
+  <si>
+    <t>Risk is not actively discussed. Individuals engage as they deem best</t>
+  </si>
+  <si>
+    <t>Cost of risk is not well understood or routinely factored into decisions. Category leaders provide oversight</t>
+  </si>
+  <si>
+    <t>Risk management becomes a standard consideration and an element of strategy. CSCO &amp; CPO oversee efforts</t>
+  </si>
+  <si>
+    <t>Efforts that considered the Cost of Risk and mitigation successes are captured, shared and celebrated. SC risk posture reported into ERM</t>
+  </si>
+  <si>
+    <t>Attitudes towards risk are established at the top and aligned with organizational objectives.Exeutive and board regularly review SC risk</t>
+  </si>
+  <si>
+    <t>No managed structure. Siloed teams or individuals</t>
+  </si>
+  <si>
+    <t>Managed at Department or Plant level</t>
+  </si>
+  <si>
+    <t>Center-led / Center of Excellence established tasked with oversight</t>
+  </si>
+  <si>
+    <t>Fully embedded into the Procurement/Supply Chain team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant stakeholder organizations have defined roles to ensure alignment and it is governed centrally  across different functions (e.g. Finance, Supply Chain, IT) </t>
+  </si>
+  <si>
+    <t>No formal training or certification</t>
+  </si>
+  <si>
+    <t>Training exists but not tracked or mandated. No certification</t>
+  </si>
+  <si>
+    <t>Training is standardarized and mandatory. Training results are tested and individuals are certified</t>
+  </si>
+  <si>
+    <t>Revised training and certification occurs on regular intervals (e.g. annually)</t>
+  </si>
+  <si>
+    <t>A standard and globally harmonized curriculum is established. Country specific refinements are identified. Certification is a requirement of the job</t>
+  </si>
+  <si>
+    <t>Is not an element of employees goal setting</t>
+  </si>
+  <si>
+    <t>A element of performance measurement for individuals specifically tasked with risk management</t>
+  </si>
+  <si>
+    <t>OKRs are set for individuals in high risk categories</t>
+  </si>
+  <si>
+    <t>All individuals managing Categories/Suppliers have OKRs</t>
+  </si>
+  <si>
+    <t>A global risk strategy determines individual goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visibility to sub-tier </t>
+  </si>
+  <si>
+    <t>Supplier Oversight</t>
+  </si>
+  <si>
+    <t>Supplier Engagement</t>
+  </si>
+  <si>
+    <t>Policy &amp; Procedures</t>
+  </si>
+  <si>
+    <t>Culture &amp; Enterprise Engagement</t>
+  </si>
+  <si>
+    <t>Organizational Structure</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Performance Management</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tab weight</t>
+  </si>
+  <si>
+    <t>Page weight</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
     <t>Capturing all of the elements of the supply chain which  should be part of your risk program. Suppliers and their sites, ports, hubs etc. . Select the cell that most closely resembles your current  situation.</t>
   </si>
   <si>
-    <t>Subset of suppliers typically the top spends and often just Parents/Headquarters or Payment addresses</t>
-  </si>
-  <si>
-    <t>Most suppliers directly contributing to the manufacturing operations captured at the production plant address  level</t>
-  </si>
-  <si>
-    <t>Connections between nodes are captured (e.g. Supplier Site to Shipping Port to Receiving Port to Manufacturing Site)</t>
-  </si>
-  <si>
-    <t>All direct suppliers along with Key MRO and indirect suppliers. Most supply paths are identified</t>
-  </si>
-  <si>
-    <t>Information is kept up-to-date systematically and is comprehensive</t>
-  </si>
-  <si>
-    <t>Financials &amp; Tribal knowledge</t>
-  </si>
-  <si>
-    <t>Sanctions, Geographic, Weather, Market</t>
-  </si>
-  <si>
-    <t>Integration of internal metrics such as  performance, quality &amp; OTD</t>
-  </si>
-  <si>
-    <t>Compliance &amp; Sustainability and Cyber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodity, material, and industry risk </t>
-  </si>
-  <si>
-    <t>Primarily utilize a Credit rating to check supplier</t>
-  </si>
-  <si>
-    <t>Leverage multiple sources of insights from 3rd parties, web searches or google alerts or its like</t>
-  </si>
-  <si>
-    <t>Structured integration of multiple sources including purpose built real-time media monitoring</t>
-  </si>
-  <si>
-    <t>Insights extended to supplier provided insights combined with the incorporation of providers of validated topic specific content</t>
-  </si>
-  <si>
-    <t>Insights are derived through AI applied to multiple sources of insights</t>
-  </si>
-  <si>
-    <t>Limited or ad-hoc risk scoring. No central repository.</t>
-  </si>
-  <si>
-    <t>Individual topics have their own measurement. Information is isolated e.g. exists on a shared drive</t>
-  </si>
-  <si>
-    <t>Customized risk score with harmonized values for different risk topics combined to form a risk profile. Access is available to supply management organization</t>
-  </si>
-  <si>
-    <t>Risk Profile is accessible to all and ready to be integrated  to other systems and processes</t>
-  </si>
-  <si>
-    <t>Risk Profile is applicable across departments and used as the de-facto standard</t>
-  </si>
-  <si>
-    <t>Checked infrequently based upon need and typically at the time of on-boarding</t>
-  </si>
-  <si>
-    <t>Updated on a regular interval, either monthly or quarterly</t>
-  </si>
-  <si>
-    <t>Information is kept up-to-date as changes occur and are made available by external sources. Active monitoring of new and emerging threats, near real-time, is in place</t>
-  </si>
-  <si>
-    <t>Topic specific assessments that collect information from the supplier are scheduled. Updates from internal systems happen at least daily</t>
-  </si>
-  <si>
-    <t>Causality: One input trigger another such as an assessment is sent based upon a revised credit score</t>
-  </si>
-  <si>
-    <t>Information lives in pockets. Manually integrated to enable reporting</t>
-  </si>
-  <si>
-    <t>Standardized reports are created and available to the user community</t>
-  </si>
-  <si>
-    <t>Access to ad-hoc reporting and the ability to create user specifc dashboard that highlight the information most critical to the user</t>
-  </si>
-  <si>
-    <t>Sophisticated reporting is able to utilize historical risk profile content to identify trends</t>
-  </si>
-  <si>
-    <t>Utilizing information gleaned from previous events, a system is able to predict potential outcomes and likelihood based upon current risk factors</t>
-  </si>
-  <si>
-    <t>Tool use is ad-hoc usually initiated by an individual with their available toolbox (e.g. excel)</t>
-  </si>
-  <si>
-    <t>Disconnected, home-grown tools established  eg. MS ToDos, Google News alerts, Spread sheets (Excel)</t>
-  </si>
-  <si>
-    <t>Individual tools are purchased or configured for specific purposes, not tightly integrated</t>
-  </si>
-  <si>
-    <t>Purpose-built tools exist for the entire process with some integration. Capabilities are available on mobile</t>
-  </si>
-  <si>
-    <t>End-2-end integrated tool suite using APIs to pull and push data into and from other systems. Risk KPIs are part of company wide reporting</t>
-  </si>
-  <si>
-    <t>Risk types</t>
-  </si>
-  <si>
     <t>Measures how comprehensively  your program covers all types of risk. Scoring for this topic requires that you review all of the columns and count how many you cover. Use that count to assign your value as opposed to skipping by types.</t>
   </si>
   <si>
-    <t>Sources of insight</t>
-  </si>
-  <si>
     <t>Assesses  if you are leveraging all of the available information sources able to feed your risk program.  Scoring for this topic requires that you review all of the columns and count how many you cover. Use that count to assign your value as opposed to skipping by types.</t>
   </si>
   <si>
     <t>Measures how pervasive a standardized risk score, a profile, is established, recognized as such and utilized across the organization. Select the cell that most closely resembles your current  situation.</t>
   </si>
   <si>
-    <t>Source of truth</t>
-  </si>
-  <si>
-    <t>Use of Analytics</t>
+    <t>Assesses if the information utilized for risk analysis is current and the most up to date information available. Select the cell that most closely resembles your current  situation.</t>
   </si>
   <si>
     <t>Measures the degree to which analytics enable the user community to identify relevant threats and focus on what matters. Select the cell that most closely resembles your current  situation.</t>
   </si>
   <si>
-    <t>Digitalization</t>
+    <t>The degree to which tools and technology work seamlessly  to enable and measure standard processes. Select the cell that most closely resembles your current  situation.</t>
+  </si>
+  <si>
+    <t>Determines both your understanding of and use of criticality in your risk mitigation strategy.</t>
+  </si>
+  <si>
+    <t>Measures how structured and formalized your process for mitigation is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures how strategic your onboarding of new suppliers is. </t>
   </si>
   <si>
     <t>The degree to which tools and technology work seamlessly  to enable and measure standard processes.</t>
   </si>
   <si>
-    <t>The degree to which tools and technology work seamlessly  to enable and measure standard processes. Select the cell that most closely resembles your current  situation.</t>
-  </si>
-  <si>
-    <t>Frequency of information updates</t>
-  </si>
-  <si>
-    <t>Assesses if the information utilized for risk analysis is current and the most up to date information available. Select the cell that most closely resembles your current  situation.</t>
-  </si>
-  <si>
-    <t>Preparedness: Understanding Criticality</t>
-  </si>
-  <si>
-    <t>Mitigation approach</t>
-  </si>
-  <si>
-    <t>Due Diligence for new suppliers</t>
-  </si>
-  <si>
-    <t>Risk Mitigation</t>
-  </si>
-  <si>
-    <t>Determines both your understanding of and use of criticality in your risk mitigation strategy.</t>
-  </si>
-  <si>
-    <t>Measures how structured and formalized your process for mitigation is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measures how strategic your onboarding of new suppliers is. </t>
-  </si>
-  <si>
-    <t>No standard metrics are in place</t>
-  </si>
-  <si>
-    <t>Criticality is estimated based upon spend and segmentation</t>
-  </si>
-  <si>
-    <t>Qualitative assessment of supplier site criticality by category / material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criticality updated on regular intervals &amp; includes Business at Risk derived from product revenue. Threats are tied to Open Orders, contracts, and delivery schedules </t>
-  </si>
-  <si>
-    <t>Criticality is understood at the supplier-part level and tied to purchasing and supply process</t>
-  </si>
-  <si>
-    <t>Some plans exist, but decisions on how to mitigate an event are up to the discretion of category owner/buyer</t>
-  </si>
-  <si>
-    <t>Standard Mitigation actions for most risk types, typically reactive</t>
-  </si>
-  <si>
-    <t>Standard Mitigation actions for all risk types including a proactive playbook</t>
-  </si>
-  <si>
-    <t>Actions are mandated, tracked and results measured</t>
-  </si>
-  <si>
-    <t>Plans are regularly reviewed and evolved based upon lessons learned</t>
-  </si>
-  <si>
-    <t>Individuals conduct due diligence as they deem appropriate.</t>
-  </si>
-  <si>
-    <t>A minimum set of standardized requirements for all new suppliers must be assessed</t>
-  </si>
-  <si>
-    <t>Criteria for on-boarding is established with a broad set of stakeholders. Suppliers are required to complete questionnaires. Topics include Financial Health, Cyber, Compliance and Safety</t>
-  </si>
-  <si>
-    <t>Supplier provided information is validated and must be updated at regular intervals</t>
-  </si>
-  <si>
-    <t>A historical review of suppliers performance and risk posture is performed as part of on-boarding in addition to an assessment process</t>
-  </si>
-  <si>
-    <t>Tool use is ad-hoc usually initiated by an individual with their available infrastructure</t>
-  </si>
-  <si>
-    <t>Disconnected, not specialized tools established eg. MS ToDos, Google News alerts, excel</t>
-  </si>
-  <si>
-    <t>Supplier Collaboration &amp; Network Resilience</t>
-  </si>
-  <si>
     <t>Measures your visibility into sub-tier and how it affects your overall supply chain</t>
   </si>
   <si>
@@ -303,54 +519,6 @@
     <t>Describes how much and to what degree you maintain relationships with suppliers on the topic of risk management</t>
   </si>
   <si>
-    <t>Not part of the program</t>
-  </si>
-  <si>
-    <t>Discussed ad-hoc with various suppliers</t>
-  </si>
-  <si>
-    <t>Top suppliers are asked to shared their key suppliers typically updated on an annual basis</t>
-  </si>
-  <si>
-    <t>A specific set of priority supplier is defined and those suppliers share relevant suppliers. Updates are typically twice a year</t>
-  </si>
-  <si>
-    <t>Suppliers actively maintain a list of relevant suppliers that are regularly shared</t>
-  </si>
-  <si>
-    <t>Business Continuity Plans (BCP) plans are collected</t>
-  </si>
-  <si>
-    <t>Supplier risk posture is assessed and included in award and segmentation decisions</t>
-  </si>
-  <si>
-    <t>Suppliers are educated on your risk management expectations. Their risk postures are incented with favorable terms</t>
-  </si>
-  <si>
-    <t>You provide programs to educate suppliers on risk management and offer to help them with their programs</t>
-  </si>
-  <si>
-    <t>Supplier not engaged</t>
-  </si>
-  <si>
-    <t>Top suppliers engaged</t>
-  </si>
-  <si>
-    <t>All critical suppliers engaged</t>
-  </si>
-  <si>
-    <t>Critical &amp; Strategic suppliers engaged</t>
-  </si>
-  <si>
-    <t>Criticality is used to establish a threshold and all suppliers that warrant engagement are engaged</t>
-  </si>
-  <si>
-    <t>Disconnected, not specialized tools established  eg. MS ToDos, Google News alerts, excel</t>
-  </si>
-  <si>
-    <t>Organization, Governance &amp; Policies</t>
-  </si>
-  <si>
     <t>Measures your policies (or lack thereof) around risk management</t>
   </si>
   <si>
@@ -364,114 +532,6 @@
   </si>
   <si>
     <t>Is risk management part of the objectives with the employees?</t>
-  </si>
-  <si>
-    <t>No or limited formal policies</t>
-  </si>
-  <si>
-    <t>Policies are defined at the local plant level or category specific</t>
-  </si>
-  <si>
-    <t>Global policies and procedures in place</t>
-  </si>
-  <si>
-    <t>Procedures are consistently followed across the organization. High risk suppliers and categories are regularly reviewed with leadership</t>
-  </si>
-  <si>
-    <t>Procedures and policies are integrated across organizations</t>
-  </si>
-  <si>
-    <t>Risk is not actively discussed. Individuals engage as they deem best</t>
-  </si>
-  <si>
-    <t>Cost of risk is not well understood or routinely factored into decisions. Category leaders provide oversight</t>
-  </si>
-  <si>
-    <t>Risk management becomes a standard consideration and an element of strategy. CSCO &amp; CPO oversee efforts</t>
-  </si>
-  <si>
-    <t>Efforts that considered the Cost of Risk and mitigation successes are captured, shared and celebrated. SC risk posture reported into ERM</t>
-  </si>
-  <si>
-    <t>Attitudes towards risk are established at the top and aligned with organizational objectives.Exeutive and board regularly review SC risk</t>
-  </si>
-  <si>
-    <t>No managed structure. Siloed teams or individuals</t>
-  </si>
-  <si>
-    <t>Managed at Department or Plant level</t>
-  </si>
-  <si>
-    <t>Center-led / Center of Excellence established tasked with oversight</t>
-  </si>
-  <si>
-    <t>Fully embedded into the Procurement/Supply Chain team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant stakeholder organizations have defined roles to ensure alignment and it is governed centrally  across different functions (e.g. Finance, Supply Chain, IT) </t>
-  </si>
-  <si>
-    <t>No formal training or certification</t>
-  </si>
-  <si>
-    <t>Training exists but not tracked or mandated. No certification</t>
-  </si>
-  <si>
-    <t>Training is standardarized and mandatory. Training results are tested and individuals are certified</t>
-  </si>
-  <si>
-    <t>Revised training and certification occurs on regular intervals (e.g. annually)</t>
-  </si>
-  <si>
-    <t>A standard and globally harmonized curriculum is established. Country specific refinements are identified. Certification is a requirement of the job</t>
-  </si>
-  <si>
-    <t>Is not an element of employees goal setting</t>
-  </si>
-  <si>
-    <t>A element of performance measurement for individuals specifically tasked with risk management</t>
-  </si>
-  <si>
-    <t>OKRs are set for individuals in high risk categories</t>
-  </si>
-  <si>
-    <t>All individuals managing Categories/Suppliers have OKRs</t>
-  </si>
-  <si>
-    <t>A global risk strategy determines individual goals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visibility to sub-tier </t>
-  </si>
-  <si>
-    <t>Supplier Oversight</t>
-  </si>
-  <si>
-    <t>Supplier Engagement</t>
-  </si>
-  <si>
-    <t>Policy &amp; Procedures</t>
-  </si>
-  <si>
-    <t>Culture &amp; Enterprise Engagement</t>
-  </si>
-  <si>
-    <t>Organizational Structure</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Performance Management</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Tab weight</t>
-  </si>
-  <si>
-    <t>Page weight</t>
   </si>
 </sst>
 </file>
@@ -542,12 +602,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -837,7 +896,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,31 +911,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -884,527 +943,580 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
       </c>
       <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
         <v>103</v>
       </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
       </c>
       <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>126</v>
-      </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>141</v>
       </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1530,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,20 +1543,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>144</v>
+      <c r="C1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1452,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1492,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1500,108 +1612,108 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>141</v>
